--- a/MarsCompetition/MarsCompetition/WebSite.xlsx
+++ b/MarsCompetition/MarsCompetition/WebSite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mars\MarsCompetition\MarsCompetition\MarsCompetition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mars\Competition\MarsCompetition\MarsCompetition\MarsCompetition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B81C2EB-FA8A-4854-9F3E-12BE729C64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA0C01-57D8-48C0-A581-9E9758D8C78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{95F67D77-5BEE-421A-9604-670782050B9D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{95F67D77-5BEE-421A-9604-670782050B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="JoinPage" sheetId="6" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>kgbandula@gmail.com</t>
   </si>
   <si>
-    <t>bandula1975</t>
-  </si>
-  <si>
     <t>Bandula</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>TagA8</t>
+  </si>
+  <si>
+    <t>bandu197</t>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E329CE-1350-4D68-9499-7BA907E1411C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,22 +692,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +744,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +755,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE44C8B-E3EB-49EF-9C06-BCA64E46D57E}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -814,165 +814,165 @@
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="3">
         <v>45137</v>
@@ -980,216 +980,216 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
